--- a/listas_apolo/instrumentacion EE309.xlsx
+++ b/listas_apolo/instrumentacion EE309.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\ownCloud\piloto grupos lab ruben\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\Proyectos\TFG\listas-grupos-lab\listas_apolo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B94253C6-9A24-48BF-9428-E1816FF0F1B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="13">
   <si>
     <t>Año</t>
   </si>
@@ -35,18 +34,6 @@
   </si>
   <si>
     <t>Nº Orden</t>
-  </si>
-  <si>
-    <t>DNI</t>
-  </si>
-  <si>
-    <t>Apellidos</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Email</t>
   </si>
   <si>
     <t>Cód. Plan Alumno</t>
@@ -67,229 +54,7 @@
     <t>Grupo de Actividad (EE309)</t>
   </si>
   <si>
-    <t>ABAD PÉREZ</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>david.abadp@alumnos.upm.es</t>
-  </si>
-  <si>
     <t>'56EE'</t>
-  </si>
-  <si>
-    <t>ASPIROZ DE LA CALLE</t>
-  </si>
-  <si>
-    <t>MIGUEL</t>
-  </si>
-  <si>
-    <t>miguel.aspiroz.delacalle@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>BAGUÉ MADRIGAL</t>
-  </si>
-  <si>
-    <t>ABEL</t>
-  </si>
-  <si>
-    <t>a.bague@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>BUSTILLO ERGUI</t>
-  </si>
-  <si>
-    <t>JAIME</t>
-  </si>
-  <si>
-    <t>j.bustilloe@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>CABORNERO PASCUAL</t>
-  </si>
-  <si>
-    <t>JUAN MIGUEL</t>
-  </si>
-  <si>
-    <t>jm.cabornero@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>CARRERO RAMOS</t>
-  </si>
-  <si>
-    <t>RAUL</t>
-  </si>
-  <si>
-    <t>raul.carrero.ramos@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>CLEMENTE DE FRUTOS</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>christian.clemente.defrutos@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>ELSHAMI AHMED</t>
-  </si>
-  <si>
-    <t>OMAR</t>
-  </si>
-  <si>
-    <t>o.elshami@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>ESPESO RINCON</t>
-  </si>
-  <si>
-    <t>BELEN</t>
-  </si>
-  <si>
-    <t>b.espeso@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>FERNANDEZ ZOLLE</t>
-  </si>
-  <si>
-    <t>CARLOS ALEJANDRO</t>
-  </si>
-  <si>
-    <t>c.fzolle@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>GARCÍA ROMERO</t>
-  </si>
-  <si>
-    <t>NICOLÁS</t>
-  </si>
-  <si>
-    <t>nicolas.garcia.romero@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>GUILLÉN MAINEZ</t>
-  </si>
-  <si>
-    <t>JOSÉ VICENTE</t>
-  </si>
-  <si>
-    <t>josevicente.guillen.mainez@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>HERNANDO BERNABE</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>valeria.hernando.bernabe@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>HERRANZ RODRÍGUEZ</t>
-  </si>
-  <si>
-    <t>RAÚL</t>
-  </si>
-  <si>
-    <t>raul.herranz.rodriguez@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>HERRERA SÁNCHEZ</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>d.hsanchez@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>HUERTAS HANCCO</t>
-  </si>
-  <si>
-    <t>MAGDALENA DE LOS ANGELES</t>
-  </si>
-  <si>
-    <t>magdalena.huertas.hancco@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>MARCOS TORERO</t>
-  </si>
-  <si>
-    <t>JESÚS</t>
-  </si>
-  <si>
-    <t>jesus.marcos.torero@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>X8640095</t>
-  </si>
-  <si>
-    <t>MARIN</t>
-  </si>
-  <si>
-    <t>JOHN JAIRO</t>
-  </si>
-  <si>
-    <t>john.marin@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>MURILLO PAGADOR</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>carlos.murillo.pagador@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>PACHECO GUIOP</t>
-  </si>
-  <si>
-    <t>JEFFERSON EDUARDO</t>
-  </si>
-  <si>
-    <t>jefferson.pguiop@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>REDONDO HERNANDO</t>
-  </si>
-  <si>
-    <t>JAVIER</t>
-  </si>
-  <si>
-    <t>javier.redondo.hernando@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>SACRISTÁN JIMÉNEZ</t>
-  </si>
-  <si>
-    <t>ALEJANDRO</t>
-  </si>
-  <si>
-    <t>a.sacristanj@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>VELAZQUEZ RUIZ</t>
-  </si>
-  <si>
-    <t>MARCOS</t>
-  </si>
-  <si>
-    <t>marcos.velazquez.ruiz@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>X8767789</t>
-  </si>
-  <si>
-    <t>WANG</t>
-  </si>
-  <si>
-    <t>WENQIANG</t>
-  </si>
-  <si>
-    <t>wenqiang.wang@alumnos.upm.es</t>
   </si>
   <si>
     <t>* Asignatura elegida como LIBRE ELECCIÓN</t>
@@ -298,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -616,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -772,19 +537,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -848,7 +600,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -856,15 +608,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -887,7 +636,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -1222,9 +971,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1233,16 +984,12 @@
     <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,951 +1014,648 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>565000762</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
-        <v>49100670</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2">
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2">
         <v>54916</v>
       </c>
-      <c r="L2" s="2">
+      <c r="H2" s="2">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>565000762</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="2">
-        <v>18068425</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="2">
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2">
         <v>54918</v>
       </c>
-      <c r="L3" s="2">
+      <c r="H3" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>565000762</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="F4" s="2">
-        <v>46246255</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2">
         <v>54919</v>
       </c>
-      <c r="L4" s="2">
+      <c r="H4" s="2">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>565000762</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="F5" s="2">
-        <v>73503867</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2">
         <v>54920</v>
       </c>
-      <c r="L5" s="2">
+      <c r="H5" s="2">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>565000762</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
       </c>
-      <c r="F6" s="2">
-        <v>45576820</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2">
         <v>54921</v>
       </c>
-      <c r="L6" s="2">
+      <c r="H6" s="2">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>565000762</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
       </c>
-      <c r="F7" s="2">
-        <v>50486486</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2">
         <v>53869</v>
       </c>
-      <c r="L7" s="2">
+      <c r="H7" s="2">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>565000762</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2">
         <v>7</v>
       </c>
-      <c r="F8" s="2">
-        <v>49586466</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2">
         <v>54922</v>
       </c>
-      <c r="L8" s="2">
+      <c r="H8" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>565000762</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2">
         <v>8</v>
       </c>
-      <c r="F9" s="2">
-        <v>20904152</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2">
         <v>54923</v>
       </c>
-      <c r="L9" s="2">
+      <c r="H9" s="2">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>565000762</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2">
         <v>9</v>
       </c>
-      <c r="F10" s="2">
-        <v>70261795</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2">
         <v>53237</v>
       </c>
-      <c r="L10" s="2">
+      <c r="H10" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2">
         <v>565000762</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
-      <c r="F11" s="2">
-        <v>70418771</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="2">
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2">
         <v>54924</v>
       </c>
-      <c r="L11" s="2">
+      <c r="H11" s="2">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2">
         <v>565000762</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
       </c>
-      <c r="F12" s="2">
-        <v>77479752</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2">
         <v>54925</v>
       </c>
-      <c r="L12" s="2">
+      <c r="H12" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2">
         <v>565000762</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2">
         <v>12</v>
       </c>
-      <c r="F13" s="2">
-        <v>11874968</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2">
         <v>54927</v>
       </c>
-      <c r="L13" s="2">
+      <c r="H13" s="2">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2">
         <v>565000762</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
-      <c r="F14" s="2">
-        <v>5951353</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="2">
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2">
         <v>53311</v>
       </c>
-      <c r="L14" s="2">
+      <c r="H14" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2">
         <v>565000762</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
       </c>
-      <c r="F15" s="2">
-        <v>50360728</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="2">
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2">
         <v>54928</v>
       </c>
-      <c r="L15" s="2">
+      <c r="H15" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2">
         <v>565000762</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2">
         <v>15</v>
       </c>
-      <c r="F16" s="2">
-        <v>26510526</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="2">
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2">
         <v>54929</v>
       </c>
-      <c r="L16" s="2">
+      <c r="H16" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2">
         <v>565000762</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2">
         <v>16</v>
       </c>
-      <c r="F17" s="2">
-        <v>72007771</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="2">
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="2">
         <v>54930</v>
       </c>
-      <c r="L17" s="2">
+      <c r="H17" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B18" s="2">
         <v>565000762</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2">
         <v>17</v>
       </c>
-      <c r="F18" s="2">
-        <v>51526114</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="2">
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="2">
         <v>54931</v>
       </c>
-      <c r="L18" s="2">
+      <c r="H18" s="2">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B19" s="2">
         <v>565000762</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2">
         <v>18</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="2">
+        <v>11</v>
+      </c>
+      <c r="G19" s="2">
         <v>53319</v>
       </c>
-      <c r="L19" s="2">
+      <c r="H19" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2">
         <v>565000762</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2">
         <v>19</v>
       </c>
-      <c r="F20" s="2">
-        <v>80244524</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="2">
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="2">
         <v>54933</v>
       </c>
-      <c r="L20" s="2">
+      <c r="H20" s="2">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2">
         <v>565000762</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2">
         <v>20</v>
       </c>
-      <c r="F21" s="2">
-        <v>50363641</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="2">
+      <c r="F21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="2">
         <v>55581</v>
       </c>
-      <c r="L21" s="2">
+      <c r="H21" s="2">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2">
         <v>565000762</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E22" s="2">
         <v>21</v>
       </c>
-      <c r="F22" s="2">
-        <v>2576147</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="2">
+      <c r="F22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="2">
         <v>54168</v>
       </c>
-      <c r="L22" s="2">
+      <c r="H22" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B23" s="2">
         <v>565000762</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2">
         <v>22</v>
       </c>
-      <c r="F23" s="2">
-        <v>50356252</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="2">
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="2">
         <v>54936</v>
       </c>
-      <c r="L23" s="2">
+      <c r="H23" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B24" s="2">
         <v>565000762</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2">
         <v>23</v>
       </c>
-      <c r="F24" s="2">
-        <v>53842780</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="2">
+      <c r="F24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="2">
         <v>54255</v>
       </c>
-      <c r="L24" s="2">
+      <c r="H24" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2">
         <v>565000762</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2">
         <v>24</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="2">
+        <v>11</v>
+      </c>
+      <c r="G25" s="2">
         <v>54260</v>
       </c>
-      <c r="L25" s="2">
+      <c r="H25" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="4"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A26:E26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/listas_apolo/instrumentacion EE309.xlsx
+++ b/listas_apolo/instrumentacion EE309.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="12">
   <si>
     <t>Año</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Nº Expediente en Centro</t>
   </si>
   <si>
-    <t>Nº Expediente en Ágora</t>
-  </si>
-  <si>
     <t>2020-21</t>
   </si>
   <si>
@@ -381,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -544,17 +541,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -600,7 +586,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -609,7 +595,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -971,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1048576"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,10 +971,9 @@
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1011,645 +995,569 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>565000762</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2">
         <v>54916</v>
       </c>
-      <c r="H2" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>565000762</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2">
         <v>54918</v>
       </c>
-      <c r="H3" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>565000762</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2">
         <v>54919</v>
       </c>
-      <c r="H4" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>565000762</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2">
         <v>54920</v>
       </c>
-      <c r="H5" s="2">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>565000762</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2">
         <v>54921</v>
       </c>
-      <c r="H6" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>565000762</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2">
         <v>53869</v>
       </c>
-      <c r="H7" s="2">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>565000762</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="2">
         <v>54922</v>
       </c>
-      <c r="H8" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>565000762</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="2">
         <v>54923</v>
       </c>
-      <c r="H9" s="2">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
         <v>565000762</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2">
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2">
         <v>53237</v>
       </c>
-      <c r="H10" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2">
         <v>565000762</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2">
         <v>54924</v>
       </c>
-      <c r="H11" s="2">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2">
         <v>565000762</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2">
         <v>54925</v>
       </c>
-      <c r="H12" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2">
         <v>565000762</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2">
         <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2">
         <v>54927</v>
       </c>
-      <c r="H13" s="2">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2">
         <v>565000762</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="2">
         <v>53311</v>
       </c>
-      <c r="H14" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2">
         <v>565000762</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2">
         <v>54928</v>
       </c>
-      <c r="H15" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2">
         <v>565000762</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2">
         <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2">
         <v>54929</v>
       </c>
-      <c r="H16" s="2">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2">
         <v>565000762</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2">
         <v>16</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2">
         <v>54930</v>
       </c>
-      <c r="H17" s="2">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2">
         <v>565000762</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="2">
         <v>17</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2">
         <v>54931</v>
       </c>
-      <c r="H18" s="2">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2">
         <v>565000762</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="2">
         <v>18</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2">
         <v>53319</v>
       </c>
-      <c r="H19" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2">
         <v>565000762</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="2">
         <v>19</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2">
         <v>54933</v>
       </c>
-      <c r="H20" s="2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2">
         <v>565000762</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="2">
         <v>20</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2">
         <v>55581</v>
       </c>
-      <c r="H21" s="2">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2">
         <v>565000762</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="2">
         <v>21</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2">
         <v>54168</v>
       </c>
-      <c r="H22" s="2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="2">
         <v>565000762</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" s="2">
         <v>22</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2">
         <v>54936</v>
       </c>
-      <c r="H23" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2">
         <v>565000762</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="2">
         <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2">
         <v>54255</v>
       </c>
-      <c r="H24" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="2">
         <v>565000762</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" s="2">
         <v>24</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2">
         <v>54260</v>
       </c>
-      <c r="H25" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
